--- a/tut06/output/2001CE50.xlsx
+++ b/tut06/output/2001CE50.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,7 +559,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -733,7 +735,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
